--- a/go-api/book2.xlsx
+++ b/go-api/book2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Product Name</t>
   </si>
@@ -31,6 +31,39 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Invoice Data</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Invoice Date</t>
+  </si>
+  <si>
+    <t>Mpesa Receipt Number</t>
+  </si>
+  <si>
+    <t>Receipt Number</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Receipt Data</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <t>Receipt Date</t>
+  </si>
+  <si>
     <t>LPO ID</t>
   </si>
   <si>
@@ -40,61 +73,169 @@
     <t>LPO Data</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>LPO Date</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Invoice Data</t>
-  </si>
-  <si>
-    <t>Invoice Date</t>
-  </si>
-  <si>
-    <t>Mpesa Receipt Number</t>
-  </si>
-  <si>
-    <t>Receipt Number</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Receipt Data</t>
-  </si>
-  <si>
-    <t>Payment Method</t>
-  </si>
-  <si>
-    <t>Receipt Date</t>
+    <t>20240818222042</t>
+  </si>
+  <si>
+    <t>Eldohosp Pharmacetecauls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 300x105; Test Product 2: 200x85; Test Product 3: 10x1500; </t>
+  </si>
+  <si>
+    <t>20240818223501</t>
+  </si>
+  <si>
+    <t>Test Supplie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Product 1: 90x99; </t>
+  </si>
+  <si>
+    <t>20240818223626</t>
+  </si>
+  <si>
+    <t>ELdoHosp 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Product 1: 300x105; New Product 2: 30x1200; New Product 3: 20x99; New Product 4: 100x85; </t>
+  </si>
+  <si>
+    <t>Test Product 1</t>
+  </si>
+  <si>
+    <t>Test Product 2</t>
+  </si>
+  <si>
+    <t>Test Product 3</t>
+  </si>
+  <si>
+    <t>Test Product 4</t>
   </si>
   <si>
     <t>Product Quantity</t>
   </si>
   <si>
+    <t>Emilio</t>
+  </si>
+  <si>
+    <t>NLJ7RT61SV</t>
+  </si>
+  <si>
+    <t>20240818180820</t>
+  </si>
+  <si>
+    <t>254708374149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 21x500; Test Product 2: 2x1500; Test Product 4: 10x1200; </t>
+  </si>
+  <si>
+    <t>MPESA</t>
+  </si>
+  <si>
+    <t>20240818180858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 100x500; </t>
+  </si>
+  <si>
+    <t>Test User</t>
+  </si>
+  <si>
+    <t>20240818181008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 100x500; Test Product 3: 3x1200; Test Product 2: 1x1500; </t>
+  </si>
+  <si>
+    <t>20240818181022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 30x500; </t>
+  </si>
+  <si>
     <t>Test User 2</t>
   </si>
   <si>
+    <t>Test User 3</t>
+  </si>
+  <si>
+    <t>20240818181106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 4: 30x1200; Test Product 2: 5x1500; </t>
+  </si>
+  <si>
+    <t>20240818181136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 4: 200x1200; Test Product 2: 3x1500; </t>
+  </si>
+  <si>
+    <t>20240818184247</t>
+  </si>
+  <si>
+    <t>0718750145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 1x500; Test Product 2: 1x1500; </t>
+  </si>
+  <si>
+    <t>By Admin</t>
+  </si>
+  <si>
+    <t>20240818184535</t>
+  </si>
+  <si>
+    <t>087878787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 3: 2x1200; Test Product 4: 10x1200; </t>
+  </si>
+  <si>
+    <t>20240819014414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 49x500; Test Product 3: 80x1200; Test Product 4: 8x1200; </t>
+  </si>
+  <si>
+    <t>20240818113617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 4: 220x1200; Test Product 2: 2x1500; </t>
+  </si>
+  <si>
     <t>20240818113636</t>
   </si>
   <si>
     <t xml:space="preserve">Test Product 2: 8x1500; Test Product 4: 12x1200; </t>
   </si>
   <si>
-    <t>20240818113617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 4: 220x1200; Test Product 2: 2x1500; </t>
-  </si>
-  <si>
-    <t>Emilio</t>
+    <t>20240818113507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 220x500; Test Product 4: 200x1200; </t>
+  </si>
+  <si>
+    <t>20240818113523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 9x500; Test Product 3: 10x1200; </t>
+  </si>
+  <si>
+    <t>20240818113556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 2: 2x1500; </t>
+  </si>
+  <si>
+    <t>20240818113344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 200x500; Test Product 2: 3x1500; Test Product 4: 29x1200; </t>
   </si>
   <si>
     <t>20240818113418</t>
@@ -103,37 +244,16 @@
     <t xml:space="preserve">Test Product 1: 99x500; Test Product 2: 18x1500; Test Product 4: 1x1200; </t>
   </si>
   <si>
-    <t>20240818113344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 200x500; Test Product 2: 3x1500; Test Product 4: 29x1200; </t>
-  </si>
-  <si>
-    <t>Test Product 1</t>
-  </si>
-  <si>
-    <t>Test Product 2</t>
-  </si>
-  <si>
-    <t>Test Product 3</t>
-  </si>
-  <si>
-    <t>Test User</t>
-  </si>
-  <si>
-    <t>20240818113523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 9x500; Test Product 3: 10x1200; </t>
-  </si>
-  <si>
-    <t>20240818113507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 220x500; Test Product 4: 200x1200; </t>
-  </si>
-  <si>
-    <t>Test Product 4</t>
+    <t>20240818113448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 22x500; Test Product 4: 200x1200; </t>
+  </si>
+  <si>
+    <t>20240819005651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 1x500; </t>
   </si>
 </sst>
 </file>
@@ -511,40 +631,163 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45522.604781833295</v>
+      </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4">
-        <v>9650</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45522.60485797265</v>
+      </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4">
         <v>1000</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45522.604925050175</v>
+      </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4">
-        <v>1880</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4">
+        <v>500</v>
+      </c>
+      <c r="C5" s="3">
+        <v>600000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45522.60497934108</v>
+      </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4">
-        <v>168</v>
-      </c>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4">
+        <v>200</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45522.605038020854</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4">
+        <v>123</v>
+      </c>
+      <c r="C7" s="3">
+        <v>184500</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45522.605081345624</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4">
+        <v>890</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45522.60514384618</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4">
+        <v>330</v>
+      </c>
+      <c r="C9" s="3">
+        <v>396000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45522.60520592333</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-90</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45523.04050828219</v>
+      </c>
+      <c r="G10" s="4"/>
     </row>
   </sheetData>
 </worksheet>
@@ -565,47 +808,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3">
-        <v>26400</v>
+        <v>130100</v>
       </c>
       <c r="E2" s="2">
-        <v>45514.125</v>
+        <v>45523.125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D3" s="3">
         <v>267000</v>
@@ -616,47 +859,47 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3">
-        <v>77700</v>
+        <v>26400</v>
       </c>
       <c r="E4" s="2">
-        <v>45517.125</v>
+        <v>45514.125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3">
-        <v>139300</v>
+        <v>350000</v>
       </c>
       <c r="E5" s="2">
-        <v>45505.125</v>
+        <v>45518.125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D6" s="3">
         <v>16500</v>
@@ -667,19 +910,87 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45522.125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3">
-        <v>350000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45518.125</v>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="3">
+        <v>139300</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45505.125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45517.125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45522.125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3">
+        <v>500</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45516.125</v>
       </c>
     </row>
   </sheetData>
@@ -702,28 +1013,236 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3">
+        <v>25500</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45522.88394261814</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45522.88417353484</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3">
+        <v>55100</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45522.88446399367</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45522.88475460242</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3">
+        <v>43500</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45522.88498576506</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3">
+        <v>244500</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45522.88516011602</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45522.904791628585</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3">
+        <v>14400</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45522.9067650663</v>
       </c>
     </row>
   </sheetData>
@@ -745,19 +1264,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45523.05604777033</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8910</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45523.0659880683</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3">
+        <v>77980</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45523.06697910611</v>
       </c>
     </row>
   </sheetData>

--- a/go-api/book2.xlsx
+++ b/go-api/book2.xlsx
@@ -160,40 +160,40 @@
     <t>Test User 2</t>
   </si>
   <si>
+    <t>20240818181106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 4: 30x1200; Test Product 2: 5x1500; </t>
+  </si>
+  <si>
+    <t>20240818181136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 4: 200x1200; Test Product 2: 3x1500; </t>
+  </si>
+  <si>
+    <t>20240818184247</t>
+  </si>
+  <si>
+    <t>0718750145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 1: 1x500; Test Product 2: 1x1500; </t>
+  </si>
+  <si>
+    <t>By Admin</t>
+  </si>
+  <si>
+    <t>20240818184535</t>
+  </si>
+  <si>
+    <t>087878787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Product 3: 2x1200; Test Product 4: 10x1200; </t>
+  </si>
+  <si>
     <t>Test User 3</t>
-  </si>
-  <si>
-    <t>20240818181106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 4: 30x1200; Test Product 2: 5x1500; </t>
-  </si>
-  <si>
-    <t>20240818181136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 4: 200x1200; Test Product 2: 3x1500; </t>
-  </si>
-  <si>
-    <t>20240818184247</t>
-  </si>
-  <si>
-    <t>0718750145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 1: 1x500; Test Product 2: 1x1500; </t>
-  </si>
-  <si>
-    <t>By Admin</t>
-  </si>
-  <si>
-    <t>20240818184535</t>
-  </si>
-  <si>
-    <t>087878787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Product 3: 2x1200; Test Product 4: 10x1200; </t>
   </si>
   <si>
     <t>20240819014414</t>
@@ -825,7 +825,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -1149,13 +1149,13 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3">
         <v>43500</v>
@@ -1175,13 +1175,13 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3">
         <v>244500</v>
@@ -1201,19 +1201,19 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
       </c>
       <c r="F8" s="3">
         <v>2000</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2">
         <v>45522.904791628585</v>
@@ -1227,19 +1227,19 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
       </c>
       <c r="F9" s="3">
         <v>14400</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="2">
         <v>45522.9067650663</v>

--- a/go-api/book2.xlsx
+++ b/go-api/book2.xlsx
@@ -34,46 +34,46 @@
     <t>Username</t>
   </si>
   <si>
+    <t>LPO ID</t>
+  </si>
+  <si>
+    <t>Supplier Name</t>
+  </si>
+  <si>
+    <t>LPO Data</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>LPO Date</t>
+  </si>
+  <si>
+    <t>Mpesa Receipt Number</t>
+  </si>
+  <si>
+    <t>Receipt Number</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Receipt Data</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <t>Receipt Date</t>
+  </si>
+  <si>
     <t>Invoice Number</t>
   </si>
   <si>
     <t>Invoice Data</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>Invoice Date</t>
-  </si>
-  <si>
-    <t>Mpesa Receipt Number</t>
-  </si>
-  <si>
-    <t>Receipt Number</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Receipt Data</t>
-  </si>
-  <si>
-    <t>Payment Method</t>
-  </si>
-  <si>
-    <t>Receipt Date</t>
-  </si>
-  <si>
-    <t>LPO ID</t>
-  </si>
-  <si>
-    <t>Supplier Name</t>
-  </si>
-  <si>
-    <t>LPO Data</t>
-  </si>
-  <si>
-    <t>LPO Date</t>
   </si>
   <si>
     <t>20240818222042</t>
@@ -811,16 +811,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -1016,25 +1016,25 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -1264,19 +1264,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
